--- a/material/MatrizEstadosyFunciones.xlsx
+++ b/material/MatrizEstadosyFunciones.xlsx
@@ -1,41 +1,32 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10808"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/u631830/Desktop/Projects/desarrollo-compiladores/material/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gmgab\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DAA1CD4C-2A76-D34F-A54B-492B0FC4649D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08053668-20A7-4B71-90C2-DA8FE538C954}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7720" yWindow="3380" windowWidth="26320" windowHeight="14280" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Estados" sheetId="3" r:id="rId1"/>
     <sheet name="Funciones" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="679" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="702" uniqueCount="96">
   <si>
     <t>+</t>
   </si>
@@ -242,13 +233,94 @@
   </si>
   <si>
     <t xml:space="preserve"> fin_real</t>
+  </si>
+  <si>
+    <t>ENTER</t>
+  </si>
+  <si>
+    <t>letra</t>
+  </si>
+  <si>
+    <t>digito</t>
+  </si>
+  <si>
+    <t>TAB</t>
+  </si>
+  <si>
+    <t>SPACE</t>
+  </si>
+  <si>
+    <t>33 es Estado Final</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Revisados </t>
+  </si>
+  <si>
+    <t>Modificados</t>
+  </si>
+  <si>
+    <t>Posiblemente eliminados</t>
+  </si>
+  <si>
+    <t>Dudoso</t>
+  </si>
+  <si>
+    <t>Resta</t>
+  </si>
+  <si>
+    <t>Multi</t>
+  </si>
+  <si>
+    <t>Continuacion de comentario</t>
+  </si>
+  <si>
+    <t>Mayor</t>
+  </si>
+  <si>
+    <t>Mayor o igual</t>
+  </si>
+  <si>
+    <t>Menor</t>
+  </si>
+  <si>
+    <t>Menor o igual</t>
+  </si>
+  <si>
+    <t>Distinto</t>
+  </si>
+  <si>
+    <t>Parentesis Abre</t>
+  </si>
+  <si>
+    <t>Parentesis Cierra</t>
+  </si>
+  <si>
+    <t>Llave Abre</t>
+  </si>
+  <si>
+    <t>Llave Cierra</t>
+  </si>
+  <si>
+    <t>Inicio String</t>
+  </si>
+  <si>
+    <t>Coma</t>
+  </si>
+  <si>
+    <t>Punto y coma</t>
+  </si>
+  <si>
+    <t>Inicio Real</t>
+  </si>
+  <si>
+    <t>Continuacion Real</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -270,16 +342,66 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -287,14 +409,49 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -575,2218 +732,2078 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75F6BC66-9D55-6A44-9FC5-DD06C2766678}">
-  <dimension ref="A1:Y29"/>
+  <dimension ref="A1:AD27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="AA18" sqref="AA18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="6.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="6.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="27.85546875" style="10" customWidth="1"/>
+    <col min="2" max="2" width="4" customWidth="1"/>
+    <col min="25" max="25" width="5" customWidth="1"/>
+    <col min="26" max="26" width="5.5703125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="C1" t="s">
+    <row r="1" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="12"/>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="H1" s="13" t="s">
+        <v>71</v>
+      </c>
+      <c r="I1" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="J1" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="K1" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="L1" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="M1" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="N1" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="O1" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="P1" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q1" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="R1" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="S1" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="T1" s="13" t="s">
+        <v>73</v>
+      </c>
+      <c r="U1" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="V1" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="W1" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="X1" s="13" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A2" s="12"/>
+      <c r="B2" s="14">
+        <v>0</v>
+      </c>
+      <c r="C2" s="4">
+        <v>6</v>
+      </c>
+      <c r="D2" s="5">
+        <v>8</v>
+      </c>
+      <c r="E2" s="5">
+        <v>9</v>
+      </c>
+      <c r="F2" s="5">
+        <v>10</v>
+      </c>
+      <c r="G2" s="5">
+        <v>1</v>
+      </c>
+      <c r="H2" s="5">
+        <v>2</v>
+      </c>
+      <c r="I2" s="5">
         <v>4</v>
       </c>
-      <c r="H1" t="s">
-        <v>5</v>
-      </c>
-      <c r="I1" t="s">
-        <v>6</v>
-      </c>
-      <c r="J1" t="s">
-        <v>7</v>
-      </c>
-      <c r="K1" t="s">
-        <v>8</v>
-      </c>
-      <c r="L1" t="s">
-        <v>9</v>
-      </c>
-      <c r="M1" t="s">
-        <v>26</v>
-      </c>
-      <c r="N1" t="s">
-        <v>10</v>
-      </c>
-      <c r="O1" t="s">
-        <v>11</v>
-      </c>
-      <c r="P1" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q1" t="s">
+      <c r="J2" s="5">
+        <v>15</v>
+      </c>
+      <c r="K2" s="5">
         <v>13</v>
       </c>
-      <c r="R1" t="s">
-        <v>14</v>
-      </c>
-      <c r="V1" t="s">
-        <v>25</v>
-      </c>
-      <c r="W1" t="s">
-        <v>15</v>
-      </c>
-      <c r="X1" t="s">
-        <v>16</v>
-      </c>
-      <c r="Y1" t="s">
+      <c r="L2" s="5">
+        <v>22</v>
+      </c>
+      <c r="M2" s="5">
+        <v>3</v>
+      </c>
+      <c r="N2" s="6">
         <v>24</v>
       </c>
-    </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="C2" s="1">
+      <c r="O2" s="5">
         <v>0</v>
       </c>
-      <c r="D2" s="1">
-        <f>C2+1</f>
+      <c r="P2" s="5">
+        <v>18</v>
+      </c>
+      <c r="Q2" s="5">
+        <v>19</v>
+      </c>
+      <c r="R2" s="6">
+        <v>23</v>
+      </c>
+      <c r="S2" s="5">
+        <v>0</v>
+      </c>
+      <c r="T2" s="5">
+        <v>0</v>
+      </c>
+      <c r="U2" s="5">
+        <v>33</v>
+      </c>
+      <c r="V2" s="5">
+        <v>20</v>
+      </c>
+      <c r="W2" s="5">
+        <v>21</v>
+      </c>
+      <c r="X2" s="6">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A3" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" s="14">
+        <f>B2+1</f>
         <v>1</v>
       </c>
-      <c r="E2" s="1">
-        <f t="shared" ref="E2:Y2" si="0">D2+1</f>
+      <c r="C3" s="4">
+        <v>33</v>
+      </c>
+      <c r="D3" s="5">
+        <v>33</v>
+      </c>
+      <c r="E3" s="5">
+        <v>33</v>
+      </c>
+      <c r="F3" s="5">
+        <v>33</v>
+      </c>
+      <c r="G3" s="5">
+        <v>1</v>
+      </c>
+      <c r="H3" s="5">
+        <v>1</v>
+      </c>
+      <c r="I3" s="5">
+        <v>33</v>
+      </c>
+      <c r="J3" s="5">
+        <v>33</v>
+      </c>
+      <c r="K3" s="5">
+        <v>33</v>
+      </c>
+      <c r="L3" s="5">
+        <v>33</v>
+      </c>
+      <c r="M3" s="5">
+        <v>33</v>
+      </c>
+      <c r="N3" s="5">
+        <v>33</v>
+      </c>
+      <c r="O3" s="5">
+        <v>33</v>
+      </c>
+      <c r="P3" s="5">
+        <v>33</v>
+      </c>
+      <c r="Q3" s="5">
+        <v>33</v>
+      </c>
+      <c r="R3" s="5">
+        <v>33</v>
+      </c>
+      <c r="S3" s="5">
+        <v>33</v>
+      </c>
+      <c r="T3" s="5">
+        <v>33</v>
+      </c>
+      <c r="U3" s="5">
+        <v>33</v>
+      </c>
+      <c r="V3" s="5">
+        <v>33</v>
+      </c>
+      <c r="W3" s="5">
+        <v>33</v>
+      </c>
+      <c r="X3" s="5">
+        <v>33</v>
+      </c>
+      <c r="Z3" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="AA3" s="7"/>
+      <c r="AB3" s="7"/>
+    </row>
+    <row r="4" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A4" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" s="14">
+        <f t="shared" ref="B4:B23" si="0">B3+1</f>
         <v>2</v>
       </c>
-      <c r="F2" s="1">
+      <c r="C4" s="4">
+        <v>33</v>
+      </c>
+      <c r="D4" s="5">
+        <v>33</v>
+      </c>
+      <c r="E4" s="5">
+        <v>33</v>
+      </c>
+      <c r="F4" s="5">
+        <v>33</v>
+      </c>
+      <c r="G4" s="5">
+        <v>33</v>
+      </c>
+      <c r="H4" s="5">
+        <v>2</v>
+      </c>
+      <c r="I4" s="5">
+        <v>33</v>
+      </c>
+      <c r="J4" s="5">
+        <v>33</v>
+      </c>
+      <c r="K4" s="5">
+        <v>33</v>
+      </c>
+      <c r="L4" s="5">
+        <v>33</v>
+      </c>
+      <c r="M4" s="5">
+        <v>3</v>
+      </c>
+      <c r="N4" s="5">
+        <v>33</v>
+      </c>
+      <c r="O4" s="5">
+        <v>33</v>
+      </c>
+      <c r="P4" s="5">
+        <v>33</v>
+      </c>
+      <c r="Q4" s="5">
+        <v>33</v>
+      </c>
+      <c r="R4" s="5">
+        <v>33</v>
+      </c>
+      <c r="S4" s="5">
+        <v>33</v>
+      </c>
+      <c r="T4" s="5">
+        <v>33</v>
+      </c>
+      <c r="U4" s="5">
+        <v>33</v>
+      </c>
+      <c r="V4" s="5">
+        <v>33</v>
+      </c>
+      <c r="W4" s="5">
+        <v>33</v>
+      </c>
+      <c r="X4" s="5">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="5" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A5" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="B5" s="14">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="G2" s="1">
+      <c r="C5" s="11">
+        <v>-1</v>
+      </c>
+      <c r="D5" s="11">
+        <v>-1</v>
+      </c>
+      <c r="E5" s="11">
+        <v>-1</v>
+      </c>
+      <c r="F5" s="11">
+        <v>-1</v>
+      </c>
+      <c r="G5" s="11">
+        <v>-1</v>
+      </c>
+      <c r="H5" s="6">
+        <v>25</v>
+      </c>
+      <c r="I5" s="11">
+        <v>-1</v>
+      </c>
+      <c r="J5" s="11">
+        <v>-1</v>
+      </c>
+      <c r="K5" s="11">
+        <v>-1</v>
+      </c>
+      <c r="L5" s="11">
+        <v>-1</v>
+      </c>
+      <c r="M5" s="11">
+        <v>-1</v>
+      </c>
+      <c r="N5" s="11">
+        <v>-1</v>
+      </c>
+      <c r="O5" s="11">
+        <v>-1</v>
+      </c>
+      <c r="P5" s="11">
+        <v>-1</v>
+      </c>
+      <c r="Q5" s="11">
+        <v>-1</v>
+      </c>
+      <c r="R5" s="11">
+        <v>-1</v>
+      </c>
+      <c r="S5" s="11">
+        <v>-1</v>
+      </c>
+      <c r="T5" s="11">
+        <v>-1</v>
+      </c>
+      <c r="U5" s="11">
+        <v>-1</v>
+      </c>
+      <c r="V5" s="11">
+        <v>-1</v>
+      </c>
+      <c r="W5" s="11">
+        <v>-1</v>
+      </c>
+      <c r="X5" s="11">
+        <v>-1</v>
+      </c>
+      <c r="Z5" s="5"/>
+      <c r="AA5" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="AB5" s="9"/>
+      <c r="AC5" s="9"/>
+      <c r="AD5" s="9"/>
+    </row>
+    <row r="6" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A6" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" s="14">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="H2" s="1">
+      <c r="C6" s="4">
+        <v>33</v>
+      </c>
+      <c r="D6" s="5">
+        <v>33</v>
+      </c>
+      <c r="E6" s="5">
+        <v>33</v>
+      </c>
+      <c r="F6" s="5">
+        <v>33</v>
+      </c>
+      <c r="G6" s="5">
+        <v>33</v>
+      </c>
+      <c r="H6" s="5">
+        <v>33</v>
+      </c>
+      <c r="I6" s="5">
+        <v>5</v>
+      </c>
+      <c r="J6" s="5">
+        <v>33</v>
+      </c>
+      <c r="K6" s="5">
+        <v>33</v>
+      </c>
+      <c r="L6" s="5">
+        <v>33</v>
+      </c>
+      <c r="M6" s="5">
+        <v>33</v>
+      </c>
+      <c r="N6" s="5">
+        <v>33</v>
+      </c>
+      <c r="O6" s="5">
+        <v>33</v>
+      </c>
+      <c r="P6" s="5">
+        <v>33</v>
+      </c>
+      <c r="Q6" s="5">
+        <v>33</v>
+      </c>
+      <c r="R6" s="5">
+        <v>33</v>
+      </c>
+      <c r="S6" s="5">
+        <v>33</v>
+      </c>
+      <c r="T6" s="5">
+        <v>33</v>
+      </c>
+      <c r="U6" s="5">
+        <v>33</v>
+      </c>
+      <c r="V6" s="5">
+        <v>33</v>
+      </c>
+      <c r="W6" s="5">
+        <v>33</v>
+      </c>
+      <c r="X6" s="5">
+        <v>33</v>
+      </c>
+      <c r="Z6" s="6"/>
+      <c r="AA6" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="AB6" s="9"/>
+      <c r="AC6" s="9"/>
+      <c r="AD6" s="9"/>
+    </row>
+    <row r="7" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A7" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" s="14">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="I2" s="1">
+      <c r="C7" s="4">
+        <v>33</v>
+      </c>
+      <c r="D7" s="5">
+        <v>33</v>
+      </c>
+      <c r="E7" s="5">
+        <v>33</v>
+      </c>
+      <c r="F7" s="5">
+        <v>33</v>
+      </c>
+      <c r="G7" s="5">
+        <v>33</v>
+      </c>
+      <c r="H7" s="5">
+        <v>33</v>
+      </c>
+      <c r="I7" s="5">
+        <v>33</v>
+      </c>
+      <c r="J7" s="5">
+        <v>33</v>
+      </c>
+      <c r="K7" s="5">
+        <v>33</v>
+      </c>
+      <c r="L7" s="5">
+        <v>33</v>
+      </c>
+      <c r="M7" s="5">
+        <v>33</v>
+      </c>
+      <c r="N7" s="5">
+        <v>33</v>
+      </c>
+      <c r="O7" s="5">
+        <v>33</v>
+      </c>
+      <c r="P7" s="5">
+        <v>33</v>
+      </c>
+      <c r="Q7" s="5">
+        <v>33</v>
+      </c>
+      <c r="R7" s="5">
+        <v>33</v>
+      </c>
+      <c r="S7" s="5">
+        <v>33</v>
+      </c>
+      <c r="T7" s="5">
+        <v>33</v>
+      </c>
+      <c r="U7" s="5">
+        <v>33</v>
+      </c>
+      <c r="V7" s="5">
+        <v>33</v>
+      </c>
+      <c r="W7" s="5">
+        <v>33</v>
+      </c>
+      <c r="X7" s="5">
+        <v>33</v>
+      </c>
+      <c r="Z7" s="3"/>
+      <c r="AA7" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="AB7" s="9"/>
+      <c r="AC7" s="9"/>
+      <c r="AD7" s="9"/>
+    </row>
+    <row r="8" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A8" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" s="14">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="J2" s="1">
+      <c r="C8" s="4">
+        <v>7</v>
+      </c>
+      <c r="D8" s="5">
+        <v>33</v>
+      </c>
+      <c r="E8" s="5">
+        <v>33</v>
+      </c>
+      <c r="F8" s="5">
+        <v>33</v>
+      </c>
+      <c r="G8" s="5">
+        <v>33</v>
+      </c>
+      <c r="H8" s="5">
+        <v>33</v>
+      </c>
+      <c r="I8" s="5">
+        <v>33</v>
+      </c>
+      <c r="J8" s="5">
+        <v>33</v>
+      </c>
+      <c r="K8" s="5">
+        <v>33</v>
+      </c>
+      <c r="L8" s="5">
+        <v>33</v>
+      </c>
+      <c r="M8" s="5">
+        <v>33</v>
+      </c>
+      <c r="N8" s="5">
+        <v>33</v>
+      </c>
+      <c r="O8" s="5">
+        <v>33</v>
+      </c>
+      <c r="P8" s="5">
+        <v>33</v>
+      </c>
+      <c r="Q8" s="5">
+        <v>33</v>
+      </c>
+      <c r="R8" s="5">
+        <v>33</v>
+      </c>
+      <c r="S8" s="5">
+        <v>33</v>
+      </c>
+      <c r="T8" s="5">
+        <v>33</v>
+      </c>
+      <c r="U8" s="5">
+        <v>33</v>
+      </c>
+      <c r="V8" s="5">
+        <v>33</v>
+      </c>
+      <c r="W8" s="5">
+        <v>33</v>
+      </c>
+      <c r="X8" s="5">
+        <v>33</v>
+      </c>
+      <c r="Z8" s="8"/>
+      <c r="AA8" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="AB8" s="9"/>
+      <c r="AC8" s="9"/>
+      <c r="AD8" s="9"/>
+    </row>
+    <row r="9" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A9" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="B9" s="14">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="K2" s="1">
+      <c r="C9" s="4">
+        <v>33</v>
+      </c>
+      <c r="D9" s="5">
+        <v>33</v>
+      </c>
+      <c r="E9" s="5">
+        <v>33</v>
+      </c>
+      <c r="F9" s="5">
+        <v>33</v>
+      </c>
+      <c r="G9" s="5">
+        <v>33</v>
+      </c>
+      <c r="H9" s="5">
+        <v>33</v>
+      </c>
+      <c r="I9" s="5">
+        <v>33</v>
+      </c>
+      <c r="J9" s="5">
+        <v>33</v>
+      </c>
+      <c r="K9" s="5">
+        <v>33</v>
+      </c>
+      <c r="L9" s="5">
+        <v>33</v>
+      </c>
+      <c r="M9" s="5">
+        <v>33</v>
+      </c>
+      <c r="N9" s="5">
+        <v>33</v>
+      </c>
+      <c r="O9" s="5">
+        <v>33</v>
+      </c>
+      <c r="P9" s="5">
+        <v>33</v>
+      </c>
+      <c r="Q9" s="5">
+        <v>33</v>
+      </c>
+      <c r="R9" s="5">
+        <v>33</v>
+      </c>
+      <c r="S9" s="5">
+        <v>33</v>
+      </c>
+      <c r="T9" s="5">
+        <v>33</v>
+      </c>
+      <c r="U9" s="5">
+        <v>33</v>
+      </c>
+      <c r="V9" s="5">
+        <v>33</v>
+      </c>
+      <c r="W9" s="5">
+        <v>33</v>
+      </c>
+      <c r="X9" s="5">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="10" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A10" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="B10" s="14">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="L2" s="1">
+      <c r="C10" s="4">
+        <v>33</v>
+      </c>
+      <c r="D10" s="5">
+        <v>33</v>
+      </c>
+      <c r="E10" s="5">
+        <v>33</v>
+      </c>
+      <c r="F10" s="5">
+        <v>33</v>
+      </c>
+      <c r="G10" s="5">
+        <v>33</v>
+      </c>
+      <c r="H10" s="5">
+        <v>33</v>
+      </c>
+      <c r="I10" s="5">
+        <v>33</v>
+      </c>
+      <c r="J10" s="5">
+        <v>33</v>
+      </c>
+      <c r="K10" s="5">
+        <v>33</v>
+      </c>
+      <c r="L10" s="5">
+        <v>33</v>
+      </c>
+      <c r="M10" s="5">
+        <v>33</v>
+      </c>
+      <c r="N10" s="5">
+        <v>33</v>
+      </c>
+      <c r="O10" s="5">
+        <v>33</v>
+      </c>
+      <c r="P10" s="5">
+        <v>33</v>
+      </c>
+      <c r="Q10" s="5">
+        <v>33</v>
+      </c>
+      <c r="R10" s="5">
+        <v>33</v>
+      </c>
+      <c r="S10" s="5">
+        <v>33</v>
+      </c>
+      <c r="T10" s="5">
+        <v>33</v>
+      </c>
+      <c r="U10" s="5">
+        <v>33</v>
+      </c>
+      <c r="V10" s="5">
+        <v>33</v>
+      </c>
+      <c r="W10" s="5">
+        <v>33</v>
+      </c>
+      <c r="X10" s="5">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="11" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A11" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="B11" s="14">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="M2" s="1">
+      <c r="C11" s="4">
+        <v>33</v>
+      </c>
+      <c r="D11" s="5">
+        <v>33</v>
+      </c>
+      <c r="E11" s="5">
+        <v>33</v>
+      </c>
+      <c r="F11" s="5">
+        <v>33</v>
+      </c>
+      <c r="G11" s="5">
+        <v>33</v>
+      </c>
+      <c r="H11" s="5">
+        <v>33</v>
+      </c>
+      <c r="I11" s="5">
+        <v>33</v>
+      </c>
+      <c r="J11" s="5">
+        <v>33</v>
+      </c>
+      <c r="K11" s="5">
+        <v>33</v>
+      </c>
+      <c r="L11" s="5">
+        <v>33</v>
+      </c>
+      <c r="M11" s="5">
+        <v>33</v>
+      </c>
+      <c r="N11" s="5">
+        <v>33</v>
+      </c>
+      <c r="O11" s="5">
+        <v>33</v>
+      </c>
+      <c r="P11" s="5">
+        <v>33</v>
+      </c>
+      <c r="Q11" s="5">
+        <v>33</v>
+      </c>
+      <c r="R11" s="5">
+        <v>33</v>
+      </c>
+      <c r="S11" s="5">
+        <v>33</v>
+      </c>
+      <c r="T11" s="5">
+        <v>33</v>
+      </c>
+      <c r="U11" s="5">
+        <v>33</v>
+      </c>
+      <c r="V11" s="5">
+        <v>33</v>
+      </c>
+      <c r="W11" s="5">
+        <v>33</v>
+      </c>
+      <c r="X11" s="5">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="12" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A12" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="B12" s="14">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="N2" s="1">
+      <c r="C12" s="4">
+        <v>33</v>
+      </c>
+      <c r="D12" s="5">
+        <v>33</v>
+      </c>
+      <c r="E12" s="5">
+        <v>33</v>
+      </c>
+      <c r="F12" s="5">
+        <v>33</v>
+      </c>
+      <c r="G12" s="5">
+        <v>33</v>
+      </c>
+      <c r="H12" s="5">
+        <v>33</v>
+      </c>
+      <c r="I12" s="5">
+        <v>33</v>
+      </c>
+      <c r="J12" s="5">
+        <v>33</v>
+      </c>
+      <c r="K12" s="5">
+        <v>33</v>
+      </c>
+      <c r="L12" s="5">
+        <v>33</v>
+      </c>
+      <c r="M12" s="5">
+        <v>33</v>
+      </c>
+      <c r="N12" s="5">
+        <v>33</v>
+      </c>
+      <c r="O12" s="5">
+        <v>33</v>
+      </c>
+      <c r="P12" s="5">
+        <v>33</v>
+      </c>
+      <c r="Q12" s="5">
+        <v>33</v>
+      </c>
+      <c r="R12" s="5">
+        <v>33</v>
+      </c>
+      <c r="S12" s="5">
+        <v>33</v>
+      </c>
+      <c r="T12" s="5">
+        <v>33</v>
+      </c>
+      <c r="U12" s="5">
+        <v>33</v>
+      </c>
+      <c r="V12" s="5">
+        <v>33</v>
+      </c>
+      <c r="W12" s="5">
+        <v>33</v>
+      </c>
+      <c r="X12" s="5">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A13" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="B13" s="14">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="O2" s="1">
+      <c r="C13" s="4">
+        <v>11</v>
+      </c>
+      <c r="D13" s="5">
+        <v>11</v>
+      </c>
+      <c r="E13" s="5">
+        <v>11</v>
+      </c>
+      <c r="F13" s="5">
+        <v>11</v>
+      </c>
+      <c r="G13" s="5">
+        <v>11</v>
+      </c>
+      <c r="H13" s="5">
+        <v>11</v>
+      </c>
+      <c r="I13" s="5">
+        <v>11</v>
+      </c>
+      <c r="J13" s="5">
+        <v>11</v>
+      </c>
+      <c r="K13" s="5">
+        <v>11</v>
+      </c>
+      <c r="L13" s="5">
+        <v>11</v>
+      </c>
+      <c r="M13" s="5">
+        <v>11</v>
+      </c>
+      <c r="N13" s="5">
+        <v>11</v>
+      </c>
+      <c r="O13" s="5">
+        <v>11</v>
+      </c>
+      <c r="P13" s="5">
+        <v>11</v>
+      </c>
+      <c r="Q13" s="5">
+        <v>11</v>
+      </c>
+      <c r="R13" s="5">
+        <v>11</v>
+      </c>
+      <c r="S13" s="5">
+        <v>11</v>
+      </c>
+      <c r="T13" s="5">
+        <v>11</v>
+      </c>
+      <c r="U13" s="11">
+        <v>-1</v>
+      </c>
+      <c r="V13" s="5">
+        <v>11</v>
+      </c>
+      <c r="W13" s="5">
+        <v>11</v>
+      </c>
+      <c r="X13" s="5">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A14" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="B14" s="14">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="P2" s="1">
+      <c r="C14" s="6">
+        <v>11</v>
+      </c>
+      <c r="D14" s="6">
+        <v>11</v>
+      </c>
+      <c r="E14" s="6">
+        <v>11</v>
+      </c>
+      <c r="F14" s="5">
+        <v>0</v>
+      </c>
+      <c r="G14" s="6">
+        <v>11</v>
+      </c>
+      <c r="H14" s="6">
+        <v>11</v>
+      </c>
+      <c r="I14" s="6">
+        <v>11</v>
+      </c>
+      <c r="J14" s="6">
+        <v>11</v>
+      </c>
+      <c r="K14" s="6">
+        <v>11</v>
+      </c>
+      <c r="L14" s="6">
+        <v>11</v>
+      </c>
+      <c r="M14" s="6">
+        <v>11</v>
+      </c>
+      <c r="N14" s="6">
+        <v>11</v>
+      </c>
+      <c r="O14" s="6">
+        <v>11</v>
+      </c>
+      <c r="P14" s="6">
+        <v>11</v>
+      </c>
+      <c r="Q14" s="6">
+        <v>11</v>
+      </c>
+      <c r="R14" s="6">
+        <v>11</v>
+      </c>
+      <c r="S14" s="6">
+        <v>11</v>
+      </c>
+      <c r="T14" s="6">
+        <v>11</v>
+      </c>
+      <c r="U14" s="11">
+        <v>-1</v>
+      </c>
+      <c r="V14" s="6">
+        <v>11</v>
+      </c>
+      <c r="W14" s="6">
+        <v>11</v>
+      </c>
+      <c r="X14" s="6">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="15" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A15" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="B15" s="14">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="Q2" s="1">
+      <c r="C15" s="4">
+        <v>33</v>
+      </c>
+      <c r="D15" s="5">
+        <v>33</v>
+      </c>
+      <c r="E15" s="5">
+        <v>33</v>
+      </c>
+      <c r="F15" s="5">
+        <v>33</v>
+      </c>
+      <c r="G15" s="5">
+        <v>33</v>
+      </c>
+      <c r="H15" s="5">
+        <v>33</v>
+      </c>
+      <c r="I15" s="5">
+        <v>14</v>
+      </c>
+      <c r="J15" s="5">
+        <v>33</v>
+      </c>
+      <c r="K15" s="5">
+        <v>33</v>
+      </c>
+      <c r="L15" s="5">
+        <v>33</v>
+      </c>
+      <c r="M15" s="5">
+        <v>33</v>
+      </c>
+      <c r="N15" s="5">
+        <v>33</v>
+      </c>
+      <c r="O15" s="5">
+        <v>33</v>
+      </c>
+      <c r="P15" s="5">
+        <v>33</v>
+      </c>
+      <c r="Q15" s="5">
+        <v>33</v>
+      </c>
+      <c r="R15" s="5">
+        <v>33</v>
+      </c>
+      <c r="S15" s="5">
+        <v>33</v>
+      </c>
+      <c r="T15" s="5">
+        <v>33</v>
+      </c>
+      <c r="U15" s="5">
+        <v>33</v>
+      </c>
+      <c r="V15" s="5">
+        <v>33</v>
+      </c>
+      <c r="W15" s="5">
+        <v>33</v>
+      </c>
+      <c r="X15" s="5">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="16" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A16" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="B16" s="14">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="R2" s="1">
+      <c r="C16" s="4">
+        <v>33</v>
+      </c>
+      <c r="D16" s="5">
+        <v>33</v>
+      </c>
+      <c r="E16" s="5">
+        <v>33</v>
+      </c>
+      <c r="F16" s="5">
+        <v>33</v>
+      </c>
+      <c r="G16" s="5">
+        <v>33</v>
+      </c>
+      <c r="H16" s="5">
+        <v>33</v>
+      </c>
+      <c r="I16" s="5">
+        <v>33</v>
+      </c>
+      <c r="J16" s="5">
+        <v>33</v>
+      </c>
+      <c r="K16" s="5">
+        <v>33</v>
+      </c>
+      <c r="L16" s="5">
+        <v>33</v>
+      </c>
+      <c r="M16" s="5">
+        <v>33</v>
+      </c>
+      <c r="N16" s="5">
+        <v>33</v>
+      </c>
+      <c r="O16" s="5">
+        <v>33</v>
+      </c>
+      <c r="P16" s="5">
+        <v>33</v>
+      </c>
+      <c r="Q16" s="5">
+        <v>33</v>
+      </c>
+      <c r="R16" s="5">
+        <v>33</v>
+      </c>
+      <c r="S16" s="5">
+        <v>33</v>
+      </c>
+      <c r="T16" s="5">
+        <v>33</v>
+      </c>
+      <c r="U16" s="5">
+        <v>33</v>
+      </c>
+      <c r="V16" s="5">
+        <v>33</v>
+      </c>
+      <c r="W16" s="5">
+        <v>33</v>
+      </c>
+      <c r="X16" s="5">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="17" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A17" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="B17" s="14">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="S2" s="1">
+      <c r="C17" s="4">
+        <v>33</v>
+      </c>
+      <c r="D17" s="5">
+        <v>33</v>
+      </c>
+      <c r="E17" s="5">
+        <v>33</v>
+      </c>
+      <c r="F17" s="5">
+        <v>33</v>
+      </c>
+      <c r="G17" s="5">
+        <v>33</v>
+      </c>
+      <c r="H17" s="5">
+        <v>33</v>
+      </c>
+      <c r="I17" s="5">
+        <v>16</v>
+      </c>
+      <c r="J17" s="5">
+        <v>33</v>
+      </c>
+      <c r="K17" s="5">
+        <v>17</v>
+      </c>
+      <c r="L17" s="5">
+        <v>33</v>
+      </c>
+      <c r="M17" s="5">
+        <v>33</v>
+      </c>
+      <c r="N17" s="5">
+        <v>33</v>
+      </c>
+      <c r="O17" s="5">
+        <v>33</v>
+      </c>
+      <c r="P17" s="5">
+        <v>33</v>
+      </c>
+      <c r="Q17" s="5">
+        <v>33</v>
+      </c>
+      <c r="R17" s="5">
+        <v>33</v>
+      </c>
+      <c r="S17" s="5">
+        <v>33</v>
+      </c>
+      <c r="T17" s="5">
+        <v>33</v>
+      </c>
+      <c r="U17" s="5">
+        <v>33</v>
+      </c>
+      <c r="V17" s="5">
+        <v>33</v>
+      </c>
+      <c r="W17" s="5">
+        <v>33</v>
+      </c>
+      <c r="X17" s="5">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="18" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A18" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="B18" s="14">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="T2" s="1">
+      <c r="C18" s="4">
+        <v>33</v>
+      </c>
+      <c r="D18" s="5">
+        <v>33</v>
+      </c>
+      <c r="E18" s="5">
+        <v>33</v>
+      </c>
+      <c r="F18" s="5">
+        <v>33</v>
+      </c>
+      <c r="G18" s="5">
+        <v>33</v>
+      </c>
+      <c r="H18" s="5">
+        <v>33</v>
+      </c>
+      <c r="I18" s="5">
+        <v>33</v>
+      </c>
+      <c r="J18" s="5">
+        <v>33</v>
+      </c>
+      <c r="K18" s="5">
+        <v>33</v>
+      </c>
+      <c r="L18" s="5">
+        <v>33</v>
+      </c>
+      <c r="M18" s="5">
+        <v>33</v>
+      </c>
+      <c r="N18" s="5">
+        <v>33</v>
+      </c>
+      <c r="O18" s="5">
+        <v>33</v>
+      </c>
+      <c r="P18" s="5">
+        <v>33</v>
+      </c>
+      <c r="Q18" s="5">
+        <v>33</v>
+      </c>
+      <c r="R18" s="5">
+        <v>33</v>
+      </c>
+      <c r="S18" s="5">
+        <v>33</v>
+      </c>
+      <c r="T18" s="5">
+        <v>33</v>
+      </c>
+      <c r="U18" s="5">
+        <v>33</v>
+      </c>
+      <c r="V18" s="5">
+        <v>33</v>
+      </c>
+      <c r="W18" s="5">
+        <v>33</v>
+      </c>
+      <c r="X18" s="5">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="19" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A19" s="12" t="s">
+        <v>86</v>
+      </c>
+      <c r="B19" s="14">
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="U2" s="1">
-        <f>T2+1</f>
+      <c r="C19" s="4">
+        <v>33</v>
+      </c>
+      <c r="D19" s="5">
+        <v>33</v>
+      </c>
+      <c r="E19" s="5">
+        <v>33</v>
+      </c>
+      <c r="F19" s="5">
+        <v>33</v>
+      </c>
+      <c r="G19" s="5">
+        <v>33</v>
+      </c>
+      <c r="H19" s="5">
+        <v>33</v>
+      </c>
+      <c r="I19" s="5">
+        <v>33</v>
+      </c>
+      <c r="J19" s="5">
+        <v>33</v>
+      </c>
+      <c r="K19" s="5">
+        <v>33</v>
+      </c>
+      <c r="L19" s="5">
+        <v>33</v>
+      </c>
+      <c r="M19" s="5">
+        <v>33</v>
+      </c>
+      <c r="N19" s="5">
+        <v>33</v>
+      </c>
+      <c r="O19" s="5">
+        <v>33</v>
+      </c>
+      <c r="P19" s="5">
+        <v>33</v>
+      </c>
+      <c r="Q19" s="5">
+        <v>33</v>
+      </c>
+      <c r="R19" s="5">
+        <v>33</v>
+      </c>
+      <c r="S19" s="5">
+        <v>33</v>
+      </c>
+      <c r="T19" s="5">
+        <v>33</v>
+      </c>
+      <c r="U19" s="5">
+        <v>33</v>
+      </c>
+      <c r="V19" s="5">
+        <v>33</v>
+      </c>
+      <c r="W19" s="5">
+        <v>33</v>
+      </c>
+      <c r="X19" s="5">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="20" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A20" s="12" t="s">
+        <v>87</v>
+      </c>
+      <c r="B20" s="14">
+        <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="V2" s="1">
+      <c r="C20" s="4">
+        <v>33</v>
+      </c>
+      <c r="D20" s="5">
+        <v>33</v>
+      </c>
+      <c r="E20" s="5">
+        <v>33</v>
+      </c>
+      <c r="F20" s="5">
+        <v>33</v>
+      </c>
+      <c r="G20" s="5">
+        <v>33</v>
+      </c>
+      <c r="H20" s="5">
+        <v>33</v>
+      </c>
+      <c r="I20" s="5">
+        <v>33</v>
+      </c>
+      <c r="J20" s="5">
+        <v>33</v>
+      </c>
+      <c r="K20" s="5">
+        <v>33</v>
+      </c>
+      <c r="L20" s="5">
+        <v>33</v>
+      </c>
+      <c r="M20" s="5">
+        <v>33</v>
+      </c>
+      <c r="N20" s="5">
+        <v>33</v>
+      </c>
+      <c r="O20" s="5">
+        <v>33</v>
+      </c>
+      <c r="P20" s="5">
+        <v>33</v>
+      </c>
+      <c r="Q20" s="5">
+        <v>33</v>
+      </c>
+      <c r="R20" s="5">
+        <v>33</v>
+      </c>
+      <c r="S20" s="5">
+        <v>33</v>
+      </c>
+      <c r="T20" s="5">
+        <v>33</v>
+      </c>
+      <c r="U20" s="5">
+        <v>33</v>
+      </c>
+      <c r="V20" s="5">
+        <v>33</v>
+      </c>
+      <c r="W20" s="5">
+        <v>33</v>
+      </c>
+      <c r="X20" s="5">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="21" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A21" s="12" t="s">
+        <v>88</v>
+      </c>
+      <c r="B21" s="14">
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
-      <c r="W2" s="1">
+      <c r="C21" s="4">
+        <v>33</v>
+      </c>
+      <c r="D21" s="5">
+        <v>33</v>
+      </c>
+      <c r="E21" s="5">
+        <v>33</v>
+      </c>
+      <c r="F21" s="5">
+        <v>33</v>
+      </c>
+      <c r="G21" s="5">
+        <v>33</v>
+      </c>
+      <c r="H21" s="5">
+        <v>33</v>
+      </c>
+      <c r="I21" s="5">
+        <v>33</v>
+      </c>
+      <c r="J21" s="5">
+        <v>33</v>
+      </c>
+      <c r="K21" s="5">
+        <v>33</v>
+      </c>
+      <c r="L21" s="5">
+        <v>33</v>
+      </c>
+      <c r="M21" s="5">
+        <v>33</v>
+      </c>
+      <c r="N21" s="5">
+        <v>33</v>
+      </c>
+      <c r="O21" s="5">
+        <v>33</v>
+      </c>
+      <c r="P21" s="5">
+        <v>33</v>
+      </c>
+      <c r="Q21" s="5">
+        <v>33</v>
+      </c>
+      <c r="R21" s="5">
+        <v>33</v>
+      </c>
+      <c r="S21" s="5">
+        <v>33</v>
+      </c>
+      <c r="T21" s="5">
+        <v>33</v>
+      </c>
+      <c r="U21" s="5">
+        <v>33</v>
+      </c>
+      <c r="V21" s="5">
+        <v>33</v>
+      </c>
+      <c r="W21" s="5">
+        <v>33</v>
+      </c>
+      <c r="X21" s="5">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="22" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A22" s="12" t="s">
+        <v>89</v>
+      </c>
+      <c r="B22" s="14">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="X2" s="1">
+      <c r="C22" s="4">
+        <v>33</v>
+      </c>
+      <c r="D22" s="5">
+        <v>33</v>
+      </c>
+      <c r="E22" s="5">
+        <v>33</v>
+      </c>
+      <c r="F22" s="5">
+        <v>33</v>
+      </c>
+      <c r="G22" s="5">
+        <v>33</v>
+      </c>
+      <c r="H22" s="5">
+        <v>33</v>
+      </c>
+      <c r="I22" s="5">
+        <v>33</v>
+      </c>
+      <c r="J22" s="5">
+        <v>33</v>
+      </c>
+      <c r="K22" s="5">
+        <v>33</v>
+      </c>
+      <c r="L22" s="5">
+        <v>33</v>
+      </c>
+      <c r="M22" s="5">
+        <v>33</v>
+      </c>
+      <c r="N22" s="5">
+        <v>33</v>
+      </c>
+      <c r="O22" s="5">
+        <v>33</v>
+      </c>
+      <c r="P22" s="5">
+        <v>33</v>
+      </c>
+      <c r="Q22" s="5">
+        <v>33</v>
+      </c>
+      <c r="R22" s="5">
+        <v>33</v>
+      </c>
+      <c r="S22" s="5">
+        <v>33</v>
+      </c>
+      <c r="T22" s="5">
+        <v>33</v>
+      </c>
+      <c r="U22" s="5">
+        <v>33</v>
+      </c>
+      <c r="V22" s="5">
+        <v>33</v>
+      </c>
+      <c r="W22" s="5">
+        <v>33</v>
+      </c>
+      <c r="X22" s="5">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="23" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A23" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="B23" s="14">
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
-      <c r="Y2" s="1">
-        <f t="shared" si="0"/>
+      <c r="C23" s="4">
+        <v>33</v>
+      </c>
+      <c r="D23" s="5">
+        <v>33</v>
+      </c>
+      <c r="E23" s="5">
+        <v>33</v>
+      </c>
+      <c r="F23" s="5">
+        <v>33</v>
+      </c>
+      <c r="G23" s="5">
+        <v>33</v>
+      </c>
+      <c r="H23" s="5">
+        <v>33</v>
+      </c>
+      <c r="I23" s="5">
+        <v>33</v>
+      </c>
+      <c r="J23" s="5">
+        <v>33</v>
+      </c>
+      <c r="K23" s="5">
+        <v>33</v>
+      </c>
+      <c r="L23" s="5">
+        <v>33</v>
+      </c>
+      <c r="M23" s="5">
+        <v>33</v>
+      </c>
+      <c r="N23" s="5">
+        <v>33</v>
+      </c>
+      <c r="O23" s="5">
+        <v>33</v>
+      </c>
+      <c r="P23" s="5">
+        <v>33</v>
+      </c>
+      <c r="Q23" s="5">
+        <v>33</v>
+      </c>
+      <c r="R23" s="5">
+        <v>33</v>
+      </c>
+      <c r="S23" s="5">
+        <v>33</v>
+      </c>
+      <c r="T23" s="5">
+        <v>33</v>
+      </c>
+      <c r="U23" s="5">
+        <v>33</v>
+      </c>
+      <c r="V23" s="5">
+        <v>33</v>
+      </c>
+      <c r="W23" s="5">
+        <v>33</v>
+      </c>
+      <c r="X23" s="5">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="24" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A24" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="B24" s="14">
+        <f>B23+1</f>
         <v>22</v>
       </c>
-    </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="B3" s="1">
-        <v>0</v>
-      </c>
-      <c r="C3" s="2">
-        <v>6</v>
-      </c>
-      <c r="D3">
-        <v>8</v>
-      </c>
-      <c r="E3">
-        <v>9</v>
-      </c>
-      <c r="F3">
-        <v>10</v>
-      </c>
-      <c r="G3">
-        <v>1</v>
-      </c>
-      <c r="H3">
-        <v>2</v>
-      </c>
-      <c r="I3">
-        <v>4</v>
-      </c>
-      <c r="J3">
-        <v>15</v>
-      </c>
-      <c r="K3">
-        <v>13</v>
-      </c>
-      <c r="L3">
+      <c r="C24" s="4">
         <v>22</v>
       </c>
-      <c r="M3">
-        <v>3</v>
-      </c>
-      <c r="N3">
+      <c r="D24" s="5">
+        <v>22</v>
+      </c>
+      <c r="E24" s="5">
+        <v>22</v>
+      </c>
+      <c r="F24" s="5">
+        <v>22</v>
+      </c>
+      <c r="G24" s="5">
+        <v>22</v>
+      </c>
+      <c r="H24" s="5">
+        <v>22</v>
+      </c>
+      <c r="I24" s="5">
+        <v>22</v>
+      </c>
+      <c r="J24" s="5">
+        <v>22</v>
+      </c>
+      <c r="K24" s="5">
+        <v>22</v>
+      </c>
+      <c r="L24" s="6">
+        <v>33</v>
+      </c>
+      <c r="M24" s="5">
+        <v>22</v>
+      </c>
+      <c r="N24" s="5">
+        <v>22</v>
+      </c>
+      <c r="O24" s="5">
+        <v>22</v>
+      </c>
+      <c r="P24" s="5">
+        <v>22</v>
+      </c>
+      <c r="Q24" s="5">
+        <v>22</v>
+      </c>
+      <c r="R24" s="5">
+        <v>22</v>
+      </c>
+      <c r="S24" s="5">
+        <v>22</v>
+      </c>
+      <c r="T24" s="5">
+        <v>22</v>
+      </c>
+      <c r="U24" s="11">
+        <v>-1</v>
+      </c>
+      <c r="V24" s="5">
+        <v>22</v>
+      </c>
+      <c r="W24" s="5">
+        <v>22</v>
+      </c>
+      <c r="X24" s="5">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="25" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A25" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="B25" s="14">
+        <v>23</v>
+      </c>
+      <c r="C25" s="4">
+        <v>33</v>
+      </c>
+      <c r="D25" s="5">
+        <v>33</v>
+      </c>
+      <c r="E25" s="5">
+        <v>33</v>
+      </c>
+      <c r="F25" s="5">
+        <v>33</v>
+      </c>
+      <c r="G25" s="5">
+        <v>33</v>
+      </c>
+      <c r="H25" s="5">
+        <v>33</v>
+      </c>
+      <c r="I25" s="5">
+        <v>33</v>
+      </c>
+      <c r="J25" s="5">
+        <v>33</v>
+      </c>
+      <c r="K25" s="5">
+        <v>33</v>
+      </c>
+      <c r="L25" s="5">
+        <v>33</v>
+      </c>
+      <c r="M25" s="5">
+        <v>33</v>
+      </c>
+      <c r="N25" s="5">
+        <v>33</v>
+      </c>
+      <c r="O25" s="5">
+        <v>33</v>
+      </c>
+      <c r="P25" s="5">
+        <v>33</v>
+      </c>
+      <c r="Q25" s="5">
+        <v>33</v>
+      </c>
+      <c r="R25" s="5">
+        <v>33</v>
+      </c>
+      <c r="S25" s="5">
+        <v>33</v>
+      </c>
+      <c r="T25" s="5">
+        <v>33</v>
+      </c>
+      <c r="U25" s="5">
+        <v>33</v>
+      </c>
+      <c r="V25" s="5">
+        <v>33</v>
+      </c>
+      <c r="W25" s="5">
+        <v>33</v>
+      </c>
+      <c r="X25" s="5">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="26" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A26" s="12" t="s">
+        <v>93</v>
+      </c>
+      <c r="B26" s="14">
+        <v>24</v>
+      </c>
+      <c r="C26" s="4">
+        <v>33</v>
+      </c>
+      <c r="D26" s="5">
+        <v>33</v>
+      </c>
+      <c r="E26" s="5">
+        <v>33</v>
+      </c>
+      <c r="F26" s="5">
+        <v>33</v>
+      </c>
+      <c r="G26" s="5">
+        <v>33</v>
+      </c>
+      <c r="H26" s="5">
+        <v>33</v>
+      </c>
+      <c r="I26" s="5">
+        <v>33</v>
+      </c>
+      <c r="J26" s="5">
+        <v>33</v>
+      </c>
+      <c r="K26" s="5">
+        <v>33</v>
+      </c>
+      <c r="L26" s="5">
+        <v>33</v>
+      </c>
+      <c r="M26" s="5">
+        <v>33</v>
+      </c>
+      <c r="N26" s="5">
+        <v>33</v>
+      </c>
+      <c r="O26" s="5">
+        <v>33</v>
+      </c>
+      <c r="P26" s="5">
+        <v>33</v>
+      </c>
+      <c r="Q26" s="5">
+        <v>33</v>
+      </c>
+      <c r="R26" s="5">
+        <v>33</v>
+      </c>
+      <c r="S26" s="5">
+        <v>33</v>
+      </c>
+      <c r="T26" s="5">
+        <v>33</v>
+      </c>
+      <c r="U26" s="5">
+        <v>33</v>
+      </c>
+      <c r="V26" s="5">
+        <v>33</v>
+      </c>
+      <c r="W26" s="5">
+        <v>33</v>
+      </c>
+      <c r="X26" s="5">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="27" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A27" s="12" t="s">
+        <v>95</v>
+      </c>
+      <c r="B27" s="14">
         <v>25</v>
       </c>
-      <c r="O3">
-        <v>0</v>
-      </c>
-      <c r="P3">
-        <v>18</v>
-      </c>
-      <c r="Q3">
-        <v>19</v>
-      </c>
-      <c r="R3">
-        <v>24</v>
-      </c>
-      <c r="S3">
-        <v>0</v>
-      </c>
-      <c r="T3">
-        <v>0</v>
-      </c>
-      <c r="U3">
-        <v>0</v>
-      </c>
-      <c r="V3">
-        <v>33</v>
-      </c>
-      <c r="W3">
-        <v>20</v>
-      </c>
-      <c r="X3">
-        <v>21</v>
-      </c>
-      <c r="Y3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B4" s="1">
-        <f>B3+1</f>
-        <v>1</v>
-      </c>
-      <c r="C4" s="2">
-        <v>33</v>
-      </c>
-      <c r="D4">
-        <v>33</v>
-      </c>
-      <c r="E4">
-        <v>33</v>
-      </c>
-      <c r="F4">
-        <v>33</v>
-      </c>
-      <c r="G4">
-        <v>1</v>
-      </c>
-      <c r="H4">
-        <v>1</v>
-      </c>
-      <c r="I4">
-        <v>33</v>
-      </c>
-      <c r="J4">
-        <v>33</v>
-      </c>
-      <c r="K4">
-        <v>33</v>
-      </c>
-      <c r="L4">
-        <v>33</v>
-      </c>
-      <c r="M4">
-        <v>33</v>
-      </c>
-      <c r="N4">
-        <v>33</v>
-      </c>
-      <c r="O4">
-        <v>33</v>
-      </c>
-      <c r="P4">
-        <v>33</v>
-      </c>
-      <c r="Q4">
-        <v>33</v>
-      </c>
-      <c r="R4">
-        <v>33</v>
-      </c>
-      <c r="S4">
-        <v>33</v>
-      </c>
-      <c r="T4">
-        <v>33</v>
-      </c>
-      <c r="U4">
-        <v>33</v>
-      </c>
-      <c r="V4">
-        <v>33</v>
-      </c>
-      <c r="W4">
-        <v>33</v>
-      </c>
-      <c r="X4">
-        <v>33</v>
-      </c>
-      <c r="Y4">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>18</v>
-      </c>
-      <c r="B5" s="1">
-        <f t="shared" ref="B5:B24" si="1">B4+1</f>
-        <v>2</v>
-      </c>
-      <c r="C5" s="2">
-        <v>33</v>
-      </c>
-      <c r="D5">
-        <v>33</v>
-      </c>
-      <c r="E5">
-        <v>33</v>
-      </c>
-      <c r="F5">
-        <v>33</v>
-      </c>
-      <c r="G5">
-        <v>33</v>
-      </c>
-      <c r="H5">
-        <v>2</v>
-      </c>
-      <c r="I5">
-        <v>33</v>
-      </c>
-      <c r="J5">
-        <v>33</v>
-      </c>
-      <c r="K5">
-        <v>33</v>
-      </c>
-      <c r="L5">
-        <v>33</v>
-      </c>
-      <c r="M5">
-        <v>3</v>
-      </c>
-      <c r="N5">
-        <v>33</v>
-      </c>
-      <c r="O5">
-        <v>33</v>
-      </c>
-      <c r="P5">
-        <v>33</v>
-      </c>
-      <c r="Q5">
-        <v>33</v>
-      </c>
-      <c r="R5">
-        <v>33</v>
-      </c>
-      <c r="S5">
-        <v>33</v>
-      </c>
-      <c r="T5">
-        <v>33</v>
-      </c>
-      <c r="U5">
-        <v>33</v>
-      </c>
-      <c r="V5">
-        <v>33</v>
-      </c>
-      <c r="W5">
-        <v>33</v>
-      </c>
-      <c r="X5">
-        <v>33</v>
-      </c>
-      <c r="Y5">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>19</v>
-      </c>
-      <c r="B6" s="1">
-        <f t="shared" si="1"/>
-        <v>3</v>
-      </c>
-      <c r="C6" s="2">
-        <v>33</v>
-      </c>
-      <c r="D6">
-        <v>33</v>
-      </c>
-      <c r="E6">
-        <v>33</v>
-      </c>
-      <c r="F6">
-        <v>33</v>
-      </c>
-      <c r="G6">
-        <v>33</v>
-      </c>
-      <c r="H6">
-        <v>26</v>
-      </c>
-      <c r="I6">
-        <v>33</v>
-      </c>
-      <c r="J6">
-        <v>33</v>
-      </c>
-      <c r="K6">
-        <v>33</v>
-      </c>
-      <c r="L6">
-        <v>33</v>
-      </c>
-      <c r="M6">
-        <v>33</v>
-      </c>
-      <c r="N6">
-        <v>33</v>
-      </c>
-      <c r="O6">
-        <v>33</v>
-      </c>
-      <c r="P6">
-        <v>33</v>
-      </c>
-      <c r="Q6">
-        <v>33</v>
-      </c>
-      <c r="R6">
-        <v>33</v>
-      </c>
-      <c r="S6">
-        <v>33</v>
-      </c>
-      <c r="T6">
-        <v>33</v>
-      </c>
-      <c r="U6">
-        <v>33</v>
-      </c>
-      <c r="V6">
-        <v>33</v>
-      </c>
-      <c r="W6">
-        <v>33</v>
-      </c>
-      <c r="X6">
-        <v>33</v>
-      </c>
-      <c r="Y6">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>20</v>
-      </c>
-      <c r="B7" s="1">
-        <f t="shared" si="1"/>
-        <v>4</v>
-      </c>
-      <c r="C7" s="2">
-        <v>33</v>
-      </c>
-      <c r="D7">
-        <v>33</v>
-      </c>
-      <c r="E7">
-        <v>33</v>
-      </c>
-      <c r="F7">
-        <v>33</v>
-      </c>
-      <c r="G7">
-        <v>33</v>
-      </c>
-      <c r="H7">
-        <v>33</v>
-      </c>
-      <c r="I7">
-        <v>5</v>
-      </c>
-      <c r="J7">
-        <v>33</v>
-      </c>
-      <c r="K7">
-        <v>33</v>
-      </c>
-      <c r="L7">
-        <v>33</v>
-      </c>
-      <c r="M7">
-        <v>33</v>
-      </c>
-      <c r="N7">
-        <v>33</v>
-      </c>
-      <c r="O7">
-        <v>33</v>
-      </c>
-      <c r="P7">
-        <v>33</v>
-      </c>
-      <c r="Q7">
-        <v>33</v>
-      </c>
-      <c r="R7">
-        <v>33</v>
-      </c>
-      <c r="S7">
-        <v>33</v>
-      </c>
-      <c r="T7">
-        <v>33</v>
-      </c>
-      <c r="U7">
-        <v>33</v>
-      </c>
-      <c r="V7">
-        <v>33</v>
-      </c>
-      <c r="W7">
-        <v>33</v>
-      </c>
-      <c r="X7">
-        <v>33</v>
-      </c>
-      <c r="Y7">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>21</v>
-      </c>
-      <c r="B8" s="1">
-        <f t="shared" si="1"/>
-        <v>5</v>
-      </c>
-      <c r="C8" s="2">
-        <v>33</v>
-      </c>
-      <c r="D8">
-        <v>33</v>
-      </c>
-      <c r="E8">
-        <v>33</v>
-      </c>
-      <c r="F8">
-        <v>33</v>
-      </c>
-      <c r="G8">
-        <v>33</v>
-      </c>
-      <c r="H8">
-        <v>33</v>
-      </c>
-      <c r="I8">
-        <v>33</v>
-      </c>
-      <c r="J8">
-        <v>33</v>
-      </c>
-      <c r="K8">
-        <v>33</v>
-      </c>
-      <c r="L8">
-        <v>33</v>
-      </c>
-      <c r="M8">
-        <v>33</v>
-      </c>
-      <c r="N8">
-        <v>33</v>
-      </c>
-      <c r="O8">
-        <v>33</v>
-      </c>
-      <c r="P8">
-        <v>33</v>
-      </c>
-      <c r="Q8">
-        <v>33</v>
-      </c>
-      <c r="R8">
-        <v>33</v>
-      </c>
-      <c r="S8">
-        <v>33</v>
-      </c>
-      <c r="T8">
-        <v>33</v>
-      </c>
-      <c r="U8">
-        <v>33</v>
-      </c>
-      <c r="V8">
-        <v>33</v>
-      </c>
-      <c r="W8">
-        <v>33</v>
-      </c>
-      <c r="X8">
-        <v>33</v>
-      </c>
-      <c r="Y8">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>22</v>
-      </c>
-      <c r="B9" s="1">
-        <f t="shared" si="1"/>
-        <v>6</v>
-      </c>
-      <c r="C9" s="2">
-        <v>7</v>
-      </c>
-      <c r="D9">
-        <v>33</v>
-      </c>
-      <c r="E9">
-        <v>33</v>
-      </c>
-      <c r="F9">
-        <v>33</v>
-      </c>
-      <c r="G9">
-        <v>33</v>
-      </c>
-      <c r="H9">
-        <v>33</v>
-      </c>
-      <c r="I9">
-        <v>33</v>
-      </c>
-      <c r="J9">
-        <v>33</v>
-      </c>
-      <c r="K9">
-        <v>33</v>
-      </c>
-      <c r="L9">
-        <v>33</v>
-      </c>
-      <c r="M9">
-        <v>33</v>
-      </c>
-      <c r="N9">
-        <v>33</v>
-      </c>
-      <c r="O9">
-        <v>33</v>
-      </c>
-      <c r="P9">
-        <v>33</v>
-      </c>
-      <c r="Q9">
-        <v>33</v>
-      </c>
-      <c r="R9">
-        <v>33</v>
-      </c>
-      <c r="S9">
-        <v>33</v>
-      </c>
-      <c r="T9">
-        <v>33</v>
-      </c>
-      <c r="U9">
-        <v>33</v>
-      </c>
-      <c r="V9">
-        <v>33</v>
-      </c>
-      <c r="W9">
-        <v>33</v>
-      </c>
-      <c r="X9">
-        <v>33</v>
-      </c>
-      <c r="Y9">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>23</v>
-      </c>
-      <c r="B10" s="1">
-        <f t="shared" si="1"/>
-        <v>7</v>
-      </c>
-      <c r="C10" s="2">
-        <v>33</v>
-      </c>
-      <c r="D10">
-        <v>33</v>
-      </c>
-      <c r="E10">
-        <v>33</v>
-      </c>
-      <c r="F10">
-        <v>33</v>
-      </c>
-      <c r="G10">
-        <v>33</v>
-      </c>
-      <c r="H10">
-        <v>33</v>
-      </c>
-      <c r="I10">
-        <v>33</v>
-      </c>
-      <c r="J10">
-        <v>33</v>
-      </c>
-      <c r="K10">
-        <v>33</v>
-      </c>
-      <c r="L10">
-        <v>33</v>
-      </c>
-      <c r="M10">
-        <v>33</v>
-      </c>
-      <c r="N10">
-        <v>33</v>
-      </c>
-      <c r="O10">
-        <v>33</v>
-      </c>
-      <c r="P10">
-        <v>33</v>
-      </c>
-      <c r="Q10">
-        <v>33</v>
-      </c>
-      <c r="R10">
-        <v>33</v>
-      </c>
-      <c r="S10">
-        <v>33</v>
-      </c>
-      <c r="T10">
-        <v>33</v>
-      </c>
-      <c r="U10">
-        <v>33</v>
-      </c>
-      <c r="V10">
-        <v>33</v>
-      </c>
-      <c r="W10">
-        <v>33</v>
-      </c>
-      <c r="X10">
-        <v>33</v>
-      </c>
-      <c r="Y10">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="B11" s="1">
-        <f t="shared" si="1"/>
-        <v>8</v>
-      </c>
-      <c r="C11" s="2">
-        <v>33</v>
-      </c>
-      <c r="D11">
-        <v>33</v>
-      </c>
-      <c r="E11">
-        <v>33</v>
-      </c>
-      <c r="F11">
-        <v>33</v>
-      </c>
-      <c r="G11">
-        <v>33</v>
-      </c>
-      <c r="H11">
-        <v>33</v>
-      </c>
-      <c r="I11">
-        <v>33</v>
-      </c>
-      <c r="J11">
-        <v>33</v>
-      </c>
-      <c r="K11">
-        <v>33</v>
-      </c>
-      <c r="L11">
-        <v>33</v>
-      </c>
-      <c r="M11">
-        <v>33</v>
-      </c>
-      <c r="N11">
-        <v>33</v>
-      </c>
-      <c r="O11">
-        <v>33</v>
-      </c>
-      <c r="P11">
-        <v>33</v>
-      </c>
-      <c r="Q11">
-        <v>33</v>
-      </c>
-      <c r="R11">
-        <v>33</v>
-      </c>
-      <c r="S11">
-        <v>33</v>
-      </c>
-      <c r="T11">
-        <v>33</v>
-      </c>
-      <c r="U11">
-        <v>33</v>
-      </c>
-      <c r="V11">
-        <v>33</v>
-      </c>
-      <c r="W11">
-        <v>33</v>
-      </c>
-      <c r="X11">
-        <v>33</v>
-      </c>
-      <c r="Y11">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="B12" s="1">
-        <f t="shared" si="1"/>
-        <v>9</v>
-      </c>
-      <c r="C12" s="2">
-        <v>33</v>
-      </c>
-      <c r="D12">
-        <v>33</v>
-      </c>
-      <c r="E12">
-        <v>33</v>
-      </c>
-      <c r="F12">
-        <v>33</v>
-      </c>
-      <c r="G12">
-        <v>33</v>
-      </c>
-      <c r="H12">
-        <v>33</v>
-      </c>
-      <c r="I12">
-        <v>33</v>
-      </c>
-      <c r="J12">
-        <v>33</v>
-      </c>
-      <c r="K12">
-        <v>33</v>
-      </c>
-      <c r="L12">
-        <v>33</v>
-      </c>
-      <c r="M12">
-        <v>33</v>
-      </c>
-      <c r="N12">
-        <v>33</v>
-      </c>
-      <c r="O12">
-        <v>33</v>
-      </c>
-      <c r="P12">
-        <v>33</v>
-      </c>
-      <c r="Q12">
-        <v>33</v>
-      </c>
-      <c r="R12">
-        <v>33</v>
-      </c>
-      <c r="S12">
-        <v>33</v>
-      </c>
-      <c r="T12">
-        <v>33</v>
-      </c>
-      <c r="U12">
-        <v>33</v>
-      </c>
-      <c r="V12">
-        <v>33</v>
-      </c>
-      <c r="W12">
-        <v>33</v>
-      </c>
-      <c r="X12">
-        <v>33</v>
-      </c>
-      <c r="Y12">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>27</v>
-      </c>
-      <c r="B13" s="1">
-        <f t="shared" si="1"/>
-        <v>10</v>
-      </c>
-      <c r="C13" s="2">
-        <v>33</v>
-      </c>
-      <c r="D13">
-        <v>33</v>
-      </c>
-      <c r="E13">
-        <v>33</v>
-      </c>
-      <c r="F13">
-        <v>33</v>
-      </c>
-      <c r="G13">
-        <v>33</v>
-      </c>
-      <c r="H13">
-        <v>33</v>
-      </c>
-      <c r="I13">
-        <v>33</v>
-      </c>
-      <c r="J13">
-        <v>33</v>
-      </c>
-      <c r="K13">
-        <v>33</v>
-      </c>
-      <c r="L13">
-        <v>33</v>
-      </c>
-      <c r="M13">
-        <v>33</v>
-      </c>
-      <c r="N13">
-        <v>33</v>
-      </c>
-      <c r="O13">
-        <v>33</v>
-      </c>
-      <c r="P13">
-        <v>33</v>
-      </c>
-      <c r="Q13">
-        <v>33</v>
-      </c>
-      <c r="R13">
-        <v>33</v>
-      </c>
-      <c r="S13">
-        <v>33</v>
-      </c>
-      <c r="T13">
-        <v>33</v>
-      </c>
-      <c r="U13">
-        <v>33</v>
-      </c>
-      <c r="V13">
-        <v>33</v>
-      </c>
-      <c r="W13">
-        <v>33</v>
-      </c>
-      <c r="X13">
-        <v>33</v>
-      </c>
-      <c r="Y13">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>28</v>
-      </c>
-      <c r="B14" s="1">
-        <f t="shared" si="1"/>
-        <v>11</v>
-      </c>
-      <c r="C14" s="2">
-        <v>11</v>
-      </c>
-      <c r="D14">
-        <v>11</v>
-      </c>
-      <c r="E14">
-        <v>11</v>
-      </c>
-      <c r="F14">
-        <v>11</v>
-      </c>
-      <c r="G14">
-        <v>11</v>
-      </c>
-      <c r="H14">
-        <v>11</v>
-      </c>
-      <c r="I14">
-        <v>11</v>
-      </c>
-      <c r="J14">
-        <v>11</v>
-      </c>
-      <c r="K14">
-        <v>11</v>
-      </c>
-      <c r="L14">
-        <v>11</v>
-      </c>
-      <c r="M14">
-        <v>11</v>
-      </c>
-      <c r="N14">
-        <v>11</v>
-      </c>
-      <c r="O14">
-        <v>11</v>
-      </c>
-      <c r="P14">
-        <v>11</v>
-      </c>
-      <c r="Q14">
-        <v>11</v>
-      </c>
-      <c r="R14">
-        <v>11</v>
-      </c>
-      <c r="S14">
-        <v>11</v>
-      </c>
-      <c r="T14">
-        <v>11</v>
-      </c>
-      <c r="U14">
-        <v>11</v>
-      </c>
-      <c r="V14">
-        <v>33</v>
-      </c>
-      <c r="W14">
-        <v>11</v>
-      </c>
-      <c r="X14">
-        <v>11</v>
-      </c>
-      <c r="Y14">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="B15" s="1">
-        <f t="shared" si="1"/>
-        <v>12</v>
-      </c>
-      <c r="C15" s="2">
-        <v>12</v>
-      </c>
-      <c r="D15">
-        <v>12</v>
-      </c>
-      <c r="E15">
-        <v>12</v>
-      </c>
-      <c r="F15">
-        <v>0</v>
-      </c>
-      <c r="G15">
-        <v>12</v>
-      </c>
-      <c r="H15">
-        <v>12</v>
-      </c>
-      <c r="I15">
-        <v>12</v>
-      </c>
-      <c r="J15">
-        <v>12</v>
-      </c>
-      <c r="K15">
-        <v>12</v>
-      </c>
-      <c r="L15">
-        <v>12</v>
-      </c>
-      <c r="M15">
-        <v>12</v>
-      </c>
-      <c r="N15">
-        <v>12</v>
-      </c>
-      <c r="O15">
-        <v>12</v>
-      </c>
-      <c r="P15">
-        <v>12</v>
-      </c>
-      <c r="Q15">
-        <v>12</v>
-      </c>
-      <c r="R15">
-        <v>12</v>
-      </c>
-      <c r="S15">
-        <v>12</v>
-      </c>
-      <c r="T15">
-        <v>12</v>
-      </c>
-      <c r="U15">
-        <v>12</v>
-      </c>
-      <c r="V15">
-        <v>33</v>
-      </c>
-      <c r="W15">
-        <v>12</v>
-      </c>
-      <c r="X15">
-        <v>12</v>
-      </c>
-      <c r="Y15">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="B16" s="1">
-        <f t="shared" si="1"/>
-        <v>13</v>
-      </c>
-      <c r="C16" s="2">
-        <v>33</v>
-      </c>
-      <c r="D16">
-        <v>33</v>
-      </c>
-      <c r="E16">
-        <v>33</v>
-      </c>
-      <c r="F16">
-        <v>33</v>
-      </c>
-      <c r="G16">
-        <v>33</v>
-      </c>
-      <c r="H16">
-        <v>33</v>
-      </c>
-      <c r="I16">
-        <v>14</v>
-      </c>
-      <c r="J16">
-        <v>33</v>
-      </c>
-      <c r="K16">
-        <v>33</v>
-      </c>
-      <c r="L16">
-        <v>33</v>
-      </c>
-      <c r="M16">
-        <v>33</v>
-      </c>
-      <c r="N16">
-        <v>33</v>
-      </c>
-      <c r="O16">
-        <v>33</v>
-      </c>
-      <c r="P16">
-        <v>33</v>
-      </c>
-      <c r="Q16">
-        <v>33</v>
-      </c>
-      <c r="R16">
-        <v>33</v>
-      </c>
-      <c r="S16">
-        <v>33</v>
-      </c>
-      <c r="T16">
-        <v>33</v>
-      </c>
-      <c r="U16">
-        <v>33</v>
-      </c>
-      <c r="V16">
-        <v>33</v>
-      </c>
-      <c r="W16">
-        <v>33</v>
-      </c>
-      <c r="X16">
-        <v>33</v>
-      </c>
-      <c r="Y16">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="17" spans="2:25" x14ac:dyDescent="0.2">
-      <c r="B17" s="1">
-        <f t="shared" si="1"/>
-        <v>14</v>
-      </c>
-      <c r="C17" s="2">
-        <v>33</v>
-      </c>
-      <c r="D17">
-        <v>33</v>
-      </c>
-      <c r="E17">
-        <v>33</v>
-      </c>
-      <c r="F17">
-        <v>33</v>
-      </c>
-      <c r="G17">
-        <v>33</v>
-      </c>
-      <c r="H17">
-        <v>33</v>
-      </c>
-      <c r="I17">
-        <v>33</v>
-      </c>
-      <c r="J17">
-        <v>33</v>
-      </c>
-      <c r="K17">
-        <v>33</v>
-      </c>
-      <c r="L17">
-        <v>33</v>
-      </c>
-      <c r="M17">
-        <v>33</v>
-      </c>
-      <c r="N17">
-        <v>33</v>
-      </c>
-      <c r="O17">
-        <v>33</v>
-      </c>
-      <c r="P17">
-        <v>33</v>
-      </c>
-      <c r="Q17">
-        <v>33</v>
-      </c>
-      <c r="R17">
-        <v>33</v>
-      </c>
-      <c r="S17">
-        <v>33</v>
-      </c>
-      <c r="T17">
-        <v>33</v>
-      </c>
-      <c r="U17">
-        <v>33</v>
-      </c>
-      <c r="V17">
-        <v>33</v>
-      </c>
-      <c r="W17">
-        <v>33</v>
-      </c>
-      <c r="X17">
-        <v>33</v>
-      </c>
-      <c r="Y17">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="18" spans="2:25" x14ac:dyDescent="0.2">
-      <c r="B18" s="1">
-        <f t="shared" si="1"/>
-        <v>15</v>
-      </c>
-      <c r="C18" s="2">
-        <v>33</v>
-      </c>
-      <c r="D18">
-        <v>33</v>
-      </c>
-      <c r="E18">
-        <v>33</v>
-      </c>
-      <c r="F18">
-        <v>33</v>
-      </c>
-      <c r="G18">
-        <v>33</v>
-      </c>
-      <c r="H18">
-        <v>33</v>
-      </c>
-      <c r="I18">
-        <v>16</v>
-      </c>
-      <c r="J18">
-        <v>33</v>
-      </c>
-      <c r="K18">
-        <v>17</v>
-      </c>
-      <c r="L18">
-        <v>33</v>
-      </c>
-      <c r="M18">
-        <v>33</v>
-      </c>
-      <c r="N18">
-        <v>33</v>
-      </c>
-      <c r="O18">
-        <v>33</v>
-      </c>
-      <c r="P18">
-        <v>33</v>
-      </c>
-      <c r="Q18">
-        <v>33</v>
-      </c>
-      <c r="R18">
-        <v>33</v>
-      </c>
-      <c r="S18">
-        <v>33</v>
-      </c>
-      <c r="T18">
-        <v>33</v>
-      </c>
-      <c r="U18">
-        <v>33</v>
-      </c>
-      <c r="V18">
-        <v>33</v>
-      </c>
-      <c r="W18">
-        <v>33</v>
-      </c>
-      <c r="X18">
-        <v>33</v>
-      </c>
-      <c r="Y18">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="19" spans="2:25" x14ac:dyDescent="0.2">
-      <c r="B19" s="1">
-        <f t="shared" si="1"/>
-        <v>16</v>
-      </c>
-      <c r="C19" s="2">
-        <v>33</v>
-      </c>
-      <c r="D19">
-        <v>33</v>
-      </c>
-      <c r="E19">
-        <v>33</v>
-      </c>
-      <c r="F19">
-        <v>33</v>
-      </c>
-      <c r="G19">
-        <v>33</v>
-      </c>
-      <c r="H19">
-        <v>33</v>
-      </c>
-      <c r="I19">
-        <v>33</v>
-      </c>
-      <c r="J19">
-        <v>33</v>
-      </c>
-      <c r="K19">
-        <v>33</v>
-      </c>
-      <c r="L19">
-        <v>33</v>
-      </c>
-      <c r="M19">
-        <v>33</v>
-      </c>
-      <c r="N19">
-        <v>33</v>
-      </c>
-      <c r="O19">
-        <v>33</v>
-      </c>
-      <c r="P19">
-        <v>33</v>
-      </c>
-      <c r="Q19">
-        <v>33</v>
-      </c>
-      <c r="R19">
-        <v>33</v>
-      </c>
-      <c r="S19">
-        <v>33</v>
-      </c>
-      <c r="T19">
-        <v>33</v>
-      </c>
-      <c r="U19">
-        <v>33</v>
-      </c>
-      <c r="V19">
-        <v>33</v>
-      </c>
-      <c r="W19">
-        <v>33</v>
-      </c>
-      <c r="X19">
-        <v>33</v>
-      </c>
-      <c r="Y19">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="20" spans="2:25" x14ac:dyDescent="0.2">
-      <c r="B20" s="1">
-        <f t="shared" si="1"/>
-        <v>17</v>
-      </c>
-      <c r="C20" s="2">
-        <v>33</v>
-      </c>
-      <c r="D20">
-        <v>33</v>
-      </c>
-      <c r="E20">
-        <v>33</v>
-      </c>
-      <c r="F20">
-        <v>33</v>
-      </c>
-      <c r="G20">
-        <v>33</v>
-      </c>
-      <c r="H20">
-        <v>33</v>
-      </c>
-      <c r="I20">
-        <v>33</v>
-      </c>
-      <c r="J20">
-        <v>33</v>
-      </c>
-      <c r="K20">
-        <v>33</v>
-      </c>
-      <c r="L20">
-        <v>33</v>
-      </c>
-      <c r="M20">
-        <v>33</v>
-      </c>
-      <c r="N20">
-        <v>33</v>
-      </c>
-      <c r="O20">
-        <v>33</v>
-      </c>
-      <c r="P20">
-        <v>33</v>
-      </c>
-      <c r="Q20">
-        <v>33</v>
-      </c>
-      <c r="R20">
-        <v>33</v>
-      </c>
-      <c r="S20">
-        <v>33</v>
-      </c>
-      <c r="T20">
-        <v>33</v>
-      </c>
-      <c r="U20">
-        <v>33</v>
-      </c>
-      <c r="V20">
-        <v>33</v>
-      </c>
-      <c r="W20">
-        <v>33</v>
-      </c>
-      <c r="X20">
-        <v>33</v>
-      </c>
-      <c r="Y20">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="21" spans="2:25" x14ac:dyDescent="0.2">
-      <c r="B21" s="1">
-        <f t="shared" si="1"/>
-        <v>18</v>
-      </c>
-      <c r="C21" s="2">
-        <v>33</v>
-      </c>
-      <c r="D21">
-        <v>33</v>
-      </c>
-      <c r="E21">
-        <v>33</v>
-      </c>
-      <c r="F21">
-        <v>33</v>
-      </c>
-      <c r="G21">
-        <v>33</v>
-      </c>
-      <c r="H21">
-        <v>33</v>
-      </c>
-      <c r="I21">
-        <v>33</v>
-      </c>
-      <c r="J21">
-        <v>33</v>
-      </c>
-      <c r="K21">
-        <v>33</v>
-      </c>
-      <c r="L21">
-        <v>33</v>
-      </c>
-      <c r="M21">
-        <v>33</v>
-      </c>
-      <c r="N21">
-        <v>33</v>
-      </c>
-      <c r="O21">
-        <v>33</v>
-      </c>
-      <c r="P21">
-        <v>33</v>
-      </c>
-      <c r="Q21">
-        <v>33</v>
-      </c>
-      <c r="R21">
-        <v>33</v>
-      </c>
-      <c r="S21">
-        <v>33</v>
-      </c>
-      <c r="T21">
-        <v>33</v>
-      </c>
-      <c r="U21">
-        <v>33</v>
-      </c>
-      <c r="V21">
-        <v>33</v>
-      </c>
-      <c r="W21">
-        <v>33</v>
-      </c>
-      <c r="X21">
-        <v>33</v>
-      </c>
-      <c r="Y21">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="22" spans="2:25" x14ac:dyDescent="0.2">
-      <c r="B22" s="1">
-        <f t="shared" si="1"/>
-        <v>19</v>
-      </c>
-      <c r="C22" s="2">
-        <v>33</v>
-      </c>
-      <c r="D22">
-        <v>33</v>
-      </c>
-      <c r="E22">
-        <v>33</v>
-      </c>
-      <c r="F22">
-        <v>33</v>
-      </c>
-      <c r="G22">
-        <v>33</v>
-      </c>
-      <c r="H22">
-        <v>33</v>
-      </c>
-      <c r="I22">
-        <v>33</v>
-      </c>
-      <c r="J22">
-        <v>33</v>
-      </c>
-      <c r="K22">
-        <v>33</v>
-      </c>
-      <c r="L22">
-        <v>33</v>
-      </c>
-      <c r="M22">
-        <v>33</v>
-      </c>
-      <c r="N22">
-        <v>33</v>
-      </c>
-      <c r="O22">
-        <v>33</v>
-      </c>
-      <c r="P22">
-        <v>33</v>
-      </c>
-      <c r="Q22">
-        <v>33</v>
-      </c>
-      <c r="R22">
-        <v>33</v>
-      </c>
-      <c r="S22">
-        <v>33</v>
-      </c>
-      <c r="T22">
-        <v>33</v>
-      </c>
-      <c r="U22">
-        <v>33</v>
-      </c>
-      <c r="V22">
-        <v>33</v>
-      </c>
-      <c r="W22">
-        <v>33</v>
-      </c>
-      <c r="X22">
-        <v>33</v>
-      </c>
-      <c r="Y22">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="23" spans="2:25" x14ac:dyDescent="0.2">
-      <c r="B23" s="1">
-        <f t="shared" si="1"/>
-        <v>20</v>
-      </c>
-      <c r="C23" s="2">
-        <v>33</v>
-      </c>
-      <c r="D23">
-        <v>33</v>
-      </c>
-      <c r="E23">
-        <v>33</v>
-      </c>
-      <c r="F23">
-        <v>33</v>
-      </c>
-      <c r="G23">
-        <v>33</v>
-      </c>
-      <c r="H23">
-        <v>33</v>
-      </c>
-      <c r="I23">
-        <v>33</v>
-      </c>
-      <c r="J23">
-        <v>33</v>
-      </c>
-      <c r="K23">
-        <v>33</v>
-      </c>
-      <c r="L23">
-        <v>33</v>
-      </c>
-      <c r="M23">
-        <v>33</v>
-      </c>
-      <c r="N23">
-        <v>33</v>
-      </c>
-      <c r="O23">
-        <v>33</v>
-      </c>
-      <c r="P23">
-        <v>33</v>
-      </c>
-      <c r="Q23">
-        <v>33</v>
-      </c>
-      <c r="R23">
-        <v>33</v>
-      </c>
-      <c r="S23">
-        <v>33</v>
-      </c>
-      <c r="T23">
-        <v>33</v>
-      </c>
-      <c r="U23">
-        <v>33</v>
-      </c>
-      <c r="V23">
-        <v>33</v>
-      </c>
-      <c r="W23">
-        <v>33</v>
-      </c>
-      <c r="X23">
-        <v>33</v>
-      </c>
-      <c r="Y23">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="24" spans="2:25" x14ac:dyDescent="0.2">
-      <c r="B24" s="1">
-        <f t="shared" si="1"/>
-        <v>21</v>
-      </c>
-      <c r="C24" s="2">
-        <v>33</v>
-      </c>
-      <c r="D24">
-        <v>33</v>
-      </c>
-      <c r="E24">
-        <v>33</v>
-      </c>
-      <c r="F24">
-        <v>33</v>
-      </c>
-      <c r="G24">
-        <v>33</v>
-      </c>
-      <c r="H24">
-        <v>33</v>
-      </c>
-      <c r="I24">
-        <v>33</v>
-      </c>
-      <c r="J24">
-        <v>33</v>
-      </c>
-      <c r="K24">
-        <v>33</v>
-      </c>
-      <c r="L24">
-        <v>33</v>
-      </c>
-      <c r="M24">
-        <v>33</v>
-      </c>
-      <c r="N24">
-        <v>33</v>
-      </c>
-      <c r="O24">
-        <v>33</v>
-      </c>
-      <c r="P24">
-        <v>33</v>
-      </c>
-      <c r="Q24">
-        <v>33</v>
-      </c>
-      <c r="R24">
-        <v>33</v>
-      </c>
-      <c r="S24">
-        <v>33</v>
-      </c>
-      <c r="T24">
-        <v>33</v>
-      </c>
-      <c r="U24">
-        <v>33</v>
-      </c>
-      <c r="V24">
-        <v>33</v>
-      </c>
-      <c r="W24">
-        <v>33</v>
-      </c>
-      <c r="X24">
-        <v>33</v>
-      </c>
-      <c r="Y24">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="25" spans="2:25" x14ac:dyDescent="0.2">
-      <c r="B25" s="1">
-        <f>B24+1</f>
-        <v>22</v>
-      </c>
-      <c r="C25" s="2">
-        <v>22</v>
-      </c>
-      <c r="D25">
-        <v>22</v>
-      </c>
-      <c r="E25">
-        <v>22</v>
-      </c>
-      <c r="F25">
-        <v>22</v>
-      </c>
-      <c r="G25">
-        <v>22</v>
-      </c>
-      <c r="H25">
-        <v>22</v>
-      </c>
-      <c r="I25">
-        <v>22</v>
-      </c>
-      <c r="J25">
-        <v>22</v>
-      </c>
-      <c r="K25">
-        <v>22</v>
-      </c>
-      <c r="L25">
-        <v>23</v>
-      </c>
-      <c r="M25">
-        <v>22</v>
-      </c>
-      <c r="N25">
-        <v>22</v>
-      </c>
-      <c r="O25">
-        <v>22</v>
-      </c>
-      <c r="P25">
-        <v>22</v>
-      </c>
-      <c r="Q25">
-        <v>22</v>
-      </c>
-      <c r="R25">
-        <v>22</v>
-      </c>
-      <c r="S25">
-        <v>22</v>
-      </c>
-      <c r="T25">
-        <v>22</v>
-      </c>
-      <c r="U25">
-        <v>22</v>
-      </c>
-      <c r="V25">
-        <v>33</v>
-      </c>
-      <c r="W25">
-        <v>22</v>
-      </c>
-      <c r="X25">
-        <v>22</v>
-      </c>
-      <c r="Y25">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="26" spans="2:25" x14ac:dyDescent="0.2">
-      <c r="B26" s="1">
-        <v>23</v>
-      </c>
-      <c r="C26" s="2">
-        <v>33</v>
-      </c>
-      <c r="D26">
-        <v>33</v>
-      </c>
-      <c r="E26">
-        <v>33</v>
-      </c>
-      <c r="F26">
-        <v>33</v>
-      </c>
-      <c r="G26">
-        <v>33</v>
-      </c>
-      <c r="H26">
-        <v>33</v>
-      </c>
-      <c r="I26">
-        <v>33</v>
-      </c>
-      <c r="J26">
-        <v>33</v>
-      </c>
-      <c r="K26">
-        <v>33</v>
-      </c>
-      <c r="L26">
-        <v>33</v>
-      </c>
-      <c r="M26">
-        <v>33</v>
-      </c>
-      <c r="N26">
-        <v>33</v>
-      </c>
-      <c r="O26">
-        <v>33</v>
-      </c>
-      <c r="P26">
-        <v>33</v>
-      </c>
-      <c r="Q26">
-        <v>33</v>
-      </c>
-      <c r="R26">
-        <v>33</v>
-      </c>
-      <c r="S26">
-        <v>33</v>
-      </c>
-      <c r="T26">
-        <v>33</v>
-      </c>
-      <c r="U26">
-        <v>33</v>
-      </c>
-      <c r="V26">
-        <v>33</v>
-      </c>
-      <c r="W26">
-        <v>33</v>
-      </c>
-      <c r="X26">
-        <v>33</v>
-      </c>
-      <c r="Y26">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="27" spans="2:25" x14ac:dyDescent="0.2">
-      <c r="B27" s="1">
-        <v>24</v>
-      </c>
-      <c r="C27" s="2">
-        <v>33</v>
-      </c>
-      <c r="D27">
-        <v>33</v>
-      </c>
-      <c r="E27">
-        <v>33</v>
-      </c>
-      <c r="F27">
-        <v>33</v>
-      </c>
-      <c r="G27">
-        <v>33</v>
-      </c>
-      <c r="H27">
-        <v>33</v>
-      </c>
-      <c r="I27">
-        <v>33</v>
-      </c>
-      <c r="J27">
-        <v>33</v>
-      </c>
-      <c r="K27">
-        <v>33</v>
-      </c>
-      <c r="L27">
-        <v>33</v>
-      </c>
-      <c r="M27">
-        <v>33</v>
-      </c>
-      <c r="N27">
-        <v>33</v>
-      </c>
-      <c r="O27">
-        <v>33</v>
-      </c>
-      <c r="P27">
-        <v>33</v>
-      </c>
-      <c r="Q27">
-        <v>33</v>
-      </c>
-      <c r="R27">
-        <v>33</v>
-      </c>
-      <c r="S27">
-        <v>33</v>
-      </c>
-      <c r="T27">
-        <v>33</v>
-      </c>
-      <c r="U27">
-        <v>33</v>
-      </c>
-      <c r="V27">
-        <v>33</v>
-      </c>
-      <c r="W27">
-        <v>33</v>
-      </c>
-      <c r="X27">
-        <v>33</v>
-      </c>
-      <c r="Y27">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="28" spans="2:25" x14ac:dyDescent="0.2">
-      <c r="B28" s="1">
+      <c r="C27" s="4">
+        <v>33</v>
+      </c>
+      <c r="D27" s="5">
+        <v>33</v>
+      </c>
+      <c r="E27" s="5">
+        <v>33</v>
+      </c>
+      <c r="F27" s="5">
+        <v>33</v>
+      </c>
+      <c r="G27" s="5">
+        <v>33</v>
+      </c>
+      <c r="H27" s="6">
         <v>25</v>
       </c>
-      <c r="C28" s="2">
-        <v>33</v>
-      </c>
-      <c r="D28">
-        <v>33</v>
-      </c>
-      <c r="E28">
-        <v>33</v>
-      </c>
-      <c r="F28">
-        <v>33</v>
-      </c>
-      <c r="G28">
-        <v>33</v>
-      </c>
-      <c r="H28">
-        <v>33</v>
-      </c>
-      <c r="I28">
-        <v>33</v>
-      </c>
-      <c r="J28">
-        <v>33</v>
-      </c>
-      <c r="K28">
-        <v>33</v>
-      </c>
-      <c r="L28">
-        <v>33</v>
-      </c>
-      <c r="M28">
-        <v>33</v>
-      </c>
-      <c r="N28">
-        <v>33</v>
-      </c>
-      <c r="O28">
-        <v>33</v>
-      </c>
-      <c r="P28">
-        <v>33</v>
-      </c>
-      <c r="Q28">
-        <v>33</v>
-      </c>
-      <c r="R28">
-        <v>33</v>
-      </c>
-      <c r="S28">
-        <v>33</v>
-      </c>
-      <c r="T28">
-        <v>33</v>
-      </c>
-      <c r="U28">
-        <v>33</v>
-      </c>
-      <c r="V28">
-        <v>33</v>
-      </c>
-      <c r="W28">
-        <v>33</v>
-      </c>
-      <c r="X28">
-        <v>33</v>
-      </c>
-      <c r="Y28">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="29" spans="2:25" x14ac:dyDescent="0.2">
-      <c r="B29" s="1">
-        <v>26</v>
-      </c>
-      <c r="C29" s="2">
-        <v>33</v>
-      </c>
-      <c r="D29">
-        <v>33</v>
-      </c>
-      <c r="E29">
-        <v>33</v>
-      </c>
-      <c r="F29">
-        <v>33</v>
-      </c>
-      <c r="G29">
-        <v>33</v>
-      </c>
-      <c r="H29">
-        <v>26</v>
-      </c>
-      <c r="I29">
-        <v>33</v>
-      </c>
-      <c r="J29">
-        <v>33</v>
-      </c>
-      <c r="K29">
-        <v>33</v>
-      </c>
-      <c r="L29">
-        <v>33</v>
-      </c>
-      <c r="M29">
-        <v>33</v>
-      </c>
-      <c r="N29">
-        <v>33</v>
-      </c>
-      <c r="O29">
-        <v>33</v>
-      </c>
-      <c r="P29">
-        <v>33</v>
-      </c>
-      <c r="Q29">
-        <v>33</v>
-      </c>
-      <c r="R29">
-        <v>33</v>
-      </c>
-      <c r="S29">
-        <v>33</v>
-      </c>
-      <c r="T29">
-        <v>33</v>
-      </c>
-      <c r="U29">
-        <v>33</v>
-      </c>
-      <c r="V29">
-        <v>33</v>
-      </c>
-      <c r="W29">
-        <v>33</v>
-      </c>
-      <c r="X29">
-        <v>33</v>
-      </c>
-      <c r="Y29">
+      <c r="I27" s="5">
+        <v>33</v>
+      </c>
+      <c r="J27" s="5">
+        <v>33</v>
+      </c>
+      <c r="K27" s="5">
+        <v>33</v>
+      </c>
+      <c r="L27" s="5">
+        <v>33</v>
+      </c>
+      <c r="M27" s="5">
+        <v>33</v>
+      </c>
+      <c r="N27" s="5">
+        <v>33</v>
+      </c>
+      <c r="O27" s="5">
+        <v>33</v>
+      </c>
+      <c r="P27" s="5">
+        <v>33</v>
+      </c>
+      <c r="Q27" s="5">
+        <v>33</v>
+      </c>
+      <c r="R27" s="5">
+        <v>33</v>
+      </c>
+      <c r="S27" s="5">
+        <v>33</v>
+      </c>
+      <c r="T27" s="5">
+        <v>33</v>
+      </c>
+      <c r="U27" s="5">
+        <v>33</v>
+      </c>
+      <c r="V27" s="5">
+        <v>33</v>
+      </c>
+      <c r="W27" s="5">
+        <v>33</v>
+      </c>
+      <c r="X27" s="5">
         <v>33</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="AA8:AD8"/>
+    <mergeCell ref="Z3:AB3"/>
+    <mergeCell ref="AA6:AD6"/>
+    <mergeCell ref="AA5:AD5"/>
+    <mergeCell ref="AA7:AD7"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2794,16 +2811,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7CD6AE9-2594-2344-9F73-993384574E61}">
   <dimension ref="A1:Y29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D30" sqref="D30"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="6.83203125" customWidth="1"/>
+    <col min="1" max="2" width="6.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
       <c r="C1" t="s">
         <v>0</v>
       </c>
@@ -2865,7 +2882,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
       <c r="C2" s="1">
         <v>0</v>
       </c>
@@ -2958,7 +2975,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B3" s="1">
         <v>0</v>
       </c>
@@ -3032,7 +3049,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>17</v>
       </c>
@@ -3110,7 +3127,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>18</v>
       </c>
@@ -3188,7 +3205,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>19</v>
       </c>
@@ -3266,7 +3283,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>20</v>
       </c>
@@ -3344,7 +3361,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>21</v>
       </c>
@@ -3422,7 +3439,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>22</v>
       </c>
@@ -3500,7 +3517,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>23</v>
       </c>
@@ -3578,7 +3595,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B11" s="1">
         <f t="shared" si="1"/>
         <v>8</v>
@@ -3653,7 +3670,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B12" s="1">
         <f t="shared" si="1"/>
         <v>9</v>
@@ -3728,7 +3745,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>27</v>
       </c>
@@ -3806,7 +3823,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>28</v>
       </c>
@@ -3884,7 +3901,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B15" s="1">
         <f t="shared" si="1"/>
         <v>12</v>
@@ -3959,7 +3976,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B16" s="1">
         <f t="shared" si="1"/>
         <v>13</v>
@@ -4034,7 +4051,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="17" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B17" s="1">
         <f t="shared" si="1"/>
         <v>14</v>
@@ -4109,7 +4126,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="18" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B18" s="1">
         <f t="shared" si="1"/>
         <v>15</v>
@@ -4184,7 +4201,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="19" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B19" s="1">
         <f t="shared" si="1"/>
         <v>16</v>
@@ -4259,7 +4276,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="20" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B20" s="1">
         <f t="shared" si="1"/>
         <v>17</v>
@@ -4334,7 +4351,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="21" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B21" s="1">
         <f t="shared" si="1"/>
         <v>18</v>
@@ -4409,7 +4426,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="22" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B22" s="1">
         <f t="shared" si="1"/>
         <v>19</v>
@@ -4484,7 +4501,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="23" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B23" s="1">
         <f t="shared" si="1"/>
         <v>20</v>
@@ -4559,7 +4576,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="24" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B24" s="1">
         <f t="shared" si="1"/>
         <v>21</v>
@@ -4634,7 +4651,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="25" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B25" s="1">
         <f>B24+1</f>
         <v>22</v>
@@ -4709,7 +4726,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="26" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B26" s="1">
         <v>23</v>
       </c>
@@ -4783,7 +4800,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="27" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B27" s="1">
         <v>24</v>
       </c>
@@ -4857,7 +4874,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="28" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B28" s="1">
         <v>25</v>
       </c>
@@ -4931,7 +4948,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="29" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B29" s="1">
         <v>26</v>
       </c>
